--- a/aircraft/reports/aircraft-type-trends-yearly.xlsx
+++ b/aircraft/reports/aircraft-type-trends-yearly.xlsx
@@ -858,7 +858,7 @@
         <v>62</v>
       </c>
       <c r="G8" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H8" t="n">
         <v>204</v>
@@ -870,7 +870,7 @@
         <v>97</v>
       </c>
       <c r="K8" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L8" t="n">
         <v>91</v>
@@ -888,7 +888,7 @@
         <v>32</v>
       </c>
       <c r="Q8" t="n">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
